--- a/OddLot/data/results-mult-account/mult_fee.xlsx
+++ b/OddLot/data/results-mult-account/mult_fee.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8FE4BC-C623-4346-A910-4682C56D8854}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F66A546-6D93-486E-AA56-E60EAAC85E27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="1343" windowWidth="16875" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5625" yWindow="3870" windowWidth="16875" windowHeight="10530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1% Fee" sheetId="1" r:id="rId1"/>
@@ -351,8 +351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -375,13 +375,13 @@
         <v>2000</v>
       </c>
       <c r="B2">
-        <v>6.8647329501999996</v>
+        <v>5.7687702521999897</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>686473.29500000004</v>
+        <v>576877.02521999995</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -389,13 +389,13 @@
         <v>2001</v>
       </c>
       <c r="B3">
-        <v>2.4859800660924001</v>
+        <v>0.82643905360288605</v>
       </c>
       <c r="D3">
         <v>2001</v>
       </c>
       <c r="E3">
-        <v>1938842.69</v>
+        <v>558312.90687049995</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -403,13 +403,13 @@
         <v>2002</v>
       </c>
       <c r="B4">
-        <v>1.50735959514427</v>
+        <v>1.0497754833358399</v>
       </c>
       <c r="D4">
         <v>2002</v>
       </c>
       <c r="E4">
-        <v>4098139.1519999998</v>
+        <v>1295294.2776500001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -417,13 +417,13 @@
         <v>2003</v>
       </c>
       <c r="B5">
-        <v>0.93065603312508705</v>
+        <v>0.57880589958053896</v>
       </c>
       <c r="D5">
         <v>2003</v>
       </c>
       <c r="E5">
-        <v>6503789.7690000003</v>
+        <v>1463899.5066499901</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -431,13 +431,13 @@
         <v>2004</v>
       </c>
       <c r="B6">
-        <v>0.51104844543051597</v>
+        <v>0.31840414453320898</v>
       </c>
       <c r="D6">
         <v>2004</v>
       </c>
       <c r="E6">
-        <v>6910829.4289999995</v>
+        <v>1271410.424715</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -445,13 +445,13 @@
         <v>2005</v>
       </c>
       <c r="B7">
-        <v>0.45292768034817799</v>
+        <v>0.23024538674807599</v>
       </c>
       <c r="D7">
         <v>2005</v>
       </c>
       <c r="E7">
-        <v>9825666.0930000003</v>
+        <v>1270144.4489449901</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -459,13 +459,13 @@
         <v>2006</v>
       </c>
       <c r="B8">
-        <v>0.25114538711089202</v>
+        <v>0.14867608092911599</v>
       </c>
       <c r="D8">
         <v>2006</v>
       </c>
       <c r="E8">
-        <v>7909815.5609999998</v>
+        <v>1009008.9698</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -473,13 +473,13 @@
         <v>2007</v>
       </c>
       <c r="B9">
-        <v>0.55277156093383195</v>
+        <v>0.46212507803303798</v>
       </c>
       <c r="D9">
         <v>2007</v>
       </c>
       <c r="E9">
-        <v>21779168.600000001</v>
+        <v>3602111.3081249902</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -487,13 +487,13 @@
         <v>2008</v>
       </c>
       <c r="B10">
-        <v>0.18010700556213299</v>
+        <v>0.18460431375689601</v>
       </c>
       <c r="D10">
         <v>2008</v>
       </c>
       <c r="E10">
-        <v>11012747.130000001</v>
+        <v>2102656.4285199898</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -501,13 +501,13 @@
         <v>2009</v>
       </c>
       <c r="B11">
-        <v>2.6311292525127001E-2</v>
+        <v>3.5025414818687199E-2</v>
       </c>
       <c r="D11">
         <v>2009</v>
       </c>
       <c r="E11">
-        <v>1961557.9809999999</v>
+        <v>489355.89610499999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -515,13 +515,13 @@
         <v>2010</v>
       </c>
       <c r="B12">
-        <v>0.34703310497000001</v>
+        <v>9.7729855197457902E-2</v>
       </c>
       <c r="D12">
         <v>2010</v>
       </c>
       <c r="E12">
-        <v>26468128.510000002</v>
+        <v>1413374.80781999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -529,13 +529,13 @@
         <v>2011</v>
       </c>
       <c r="B13">
-        <v>0.14833876332399001</v>
+        <v>1.26610723531397E-2</v>
       </c>
       <c r="D13">
         <v>2011</v>
       </c>
       <c r="E13">
-        <v>15258552.34</v>
+        <v>201000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -543,13 +543,13 @@
         <v>2012</v>
       </c>
       <c r="B14">
-        <v>0.106175391520446</v>
+        <v>0.153960576173335</v>
       </c>
       <c r="D14">
         <v>2012</v>
       </c>
       <c r="E14">
-        <v>12541589.279999999</v>
+        <v>2475136.81635</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -557,13 +557,13 @@
         <v>2013</v>
       </c>
       <c r="B15">
-        <v>0.13764459253230199</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>2013</v>
       </c>
       <c r="E15">
-        <v>18225936.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -571,13 +571,13 @@
         <v>2014</v>
       </c>
       <c r="B16">
-        <v>0.14993707044923499</v>
+        <v>6.1049466716597597E-2</v>
       </c>
       <c r="D16">
         <v>2014</v>
       </c>
       <c r="E16">
-        <v>22488334.699999999</v>
+        <v>1153930.7291850001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -585,13 +585,13 @@
         <v>2015</v>
       </c>
       <c r="B17">
-        <v>0.107258527462035</v>
+        <v>4.8667187024180499E-2</v>
       </c>
       <c r="D17">
         <v>2015</v>
       </c>
       <c r="E17">
-        <v>18522297.719999999</v>
+        <v>976044.77342499699</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -599,13 +599,13 @@
         <v>2016</v>
       </c>
       <c r="B18">
-        <v>6.7782876686852095E-2</v>
+        <v>7.5924979397919701E-2</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>12954537.58</v>
+        <v>1595414.9980849901</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -613,13 +613,13 @@
         <v>2017</v>
       </c>
       <c r="B19">
-        <v>5.3373506424870702E-2</v>
+        <v>9.9059029448485603E-2</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>10891626.24</v>
+        <v>2239405.6716999998</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -627,13 +627,13 @@
         <v>2018</v>
       </c>
       <c r="B20">
-        <v>2.6054157667150499E-2</v>
+        <v>2.7435194542322801E-2</v>
       </c>
       <c r="D20">
         <v>2018</v>
       </c>
       <c r="E20">
-        <v>5569091.9550000001</v>
+        <v>681659.933644998</v>
       </c>
     </row>
   </sheetData>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1B58FB-6403-4B79-9E40-BB835568EBFE}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -673,13 +673,13 @@
         <v>2000</v>
       </c>
       <c r="B2">
-        <v>6.2286885566999999</v>
+        <v>4.7390913479999996</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>622868.85566999996</v>
+        <v>473909.1348</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -687,13 +687,13 @@
         <v>2001</v>
       </c>
       <c r="B3">
-        <v>2.5270698800918301</v>
+        <v>0.77408469100024402</v>
       </c>
       <c r="D3">
         <v>2001</v>
       </c>
       <c r="E3">
-        <v>1796124.5597399999</v>
+        <v>442222.30295999901</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -701,13 +701,13 @@
         <v>2002</v>
       </c>
       <c r="B4">
-        <v>1.6042093923053899</v>
+        <v>0.904881325694323</v>
       </c>
       <c r="D4">
         <v>2002</v>
       </c>
       <c r="E4">
-        <v>4021557.8352000001</v>
+        <v>917103.04899999895</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -715,13 +715,13 @@
         <v>2003</v>
       </c>
       <c r="B5">
-        <v>0.88265344034694604</v>
+        <v>0.48087059729931197</v>
       </c>
       <c r="D5">
         <v>2003</v>
       </c>
       <c r="E5">
-        <v>5913721.7463999903</v>
+        <v>928373.33704999997</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -729,13 +729,13 @@
         <v>2004</v>
       </c>
       <c r="B6">
-        <v>0.339678036209065</v>
+        <v>5.0180434385685597E-2</v>
       </c>
       <c r="D6">
         <v>2004</v>
       </c>
       <c r="E6">
-        <v>4284582.5642499998</v>
+        <v>143465</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -743,13 +743,13 @@
         <v>2005</v>
       </c>
       <c r="B7">
-        <v>0.38664005161155701</v>
+        <v>8.0262041318074101E-2</v>
       </c>
       <c r="D7">
         <v>2005</v>
       </c>
       <c r="E7">
-        <v>6933076.4202499902</v>
+        <v>240982.59128999899</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -757,13 +757,13 @@
         <v>2006</v>
       </c>
       <c r="B8">
-        <v>0.199178179564795</v>
+        <v>0.118732977346186</v>
       </c>
       <c r="D8">
         <v>2006</v>
       </c>
       <c r="E8">
-        <v>4942791.9093000004</v>
+        <v>385102.14999999898</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -771,13 +771,13 @@
         <v>2007</v>
       </c>
       <c r="B9">
-        <v>0.463233551123722</v>
+        <v>0.332492799670566</v>
       </c>
       <c r="D9">
         <v>2007</v>
       </c>
       <c r="E9">
-        <v>13780756.522600001</v>
+        <v>1205817.5112000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -785,13 +785,13 @@
         <v>2008</v>
       </c>
       <c r="B10">
-        <v>0.173211290626505</v>
+        <v>0.13668060265957399</v>
       </c>
       <c r="D10">
         <v>2008</v>
       </c>
       <c r="E10">
-        <v>7528236.5401499895</v>
+        <v>658664.01233000099</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -799,13 +799,13 @@
         <v>2009</v>
       </c>
       <c r="B11">
-        <v>7.5902207817582196E-2</v>
+        <v>7.6195245771864206E-2</v>
       </c>
       <c r="D11">
         <v>2009</v>
       </c>
       <c r="E11">
-        <v>4052008.1799999899</v>
+        <v>453848.506709999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -813,13 +813,13 @@
         <v>2010</v>
       </c>
       <c r="B12">
-        <v>0.27755027475551203</v>
+        <v>0.121625930404651</v>
       </c>
       <c r="D12">
         <v>2010</v>
       </c>
       <c r="E12">
-        <v>15802768.2555</v>
+        <v>779651.07363999996</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -827,13 +827,13 @@
         <v>2011</v>
       </c>
       <c r="B13">
-        <v>0.14769294825093501</v>
+        <v>1.5528752946403299E-2</v>
       </c>
       <c r="D13">
         <v>2011</v>
       </c>
       <c r="E13">
-        <v>10761552.9879499</v>
+        <v>111650</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -841,13 +841,13 @@
         <v>2012</v>
       </c>
       <c r="B14">
-        <v>0.134562984837133</v>
+        <v>0.33469421176856201</v>
       </c>
       <c r="D14">
         <v>2012</v>
       </c>
       <c r="E14">
-        <v>11252953.224099999</v>
+        <v>2443782.6249199901</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -855,13 +855,13 @@
         <v>2013</v>
       </c>
       <c r="B15">
-        <v>0.149396449731516</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>2013</v>
       </c>
       <c r="E15">
-        <v>14436010.400450001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -869,13 +869,13 @@
         <v>2014</v>
       </c>
       <c r="B16">
-        <v>0.14059910982978099</v>
+        <v>0.105737810450675</v>
       </c>
       <c r="D16">
         <v>2014</v>
       </c>
       <c r="E16">
-        <v>15431775.3968</v>
+        <v>1067457.13636999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -883,13 +883,13 @@
         <v>2015</v>
       </c>
       <c r="B17">
-        <v>0.1204602495654</v>
+        <v>8.4224518954948202E-2</v>
       </c>
       <c r="D17">
         <v>2015</v>
       </c>
       <c r="E17">
-        <v>15106186.151049901</v>
+        <v>940179.61716999998</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -897,13 +897,13 @@
         <v>2016</v>
       </c>
       <c r="B18">
-        <v>7.7618744220482594E-2</v>
+        <v>9.5337764223988902E-2</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>10891857.6555</v>
+        <v>1150341.4342700001</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -911,13 +911,13 @@
         <v>2017</v>
       </c>
       <c r="B19">
-        <v>4.5850177376129501E-2</v>
+        <v>7.7193744438878997E-3</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>6932553.8179500699</v>
+        <v>101995.625</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -925,13 +925,13 @@
         <v>2018</v>
       </c>
       <c r="B20">
-        <v>4.7755536517043999E-2</v>
+        <v>2.03018433022931E-2</v>
       </c>
       <c r="D20">
         <v>2018</v>
       </c>
       <c r="E20">
-        <v>7436592.4533000505</v>
+        <v>270317.71990000003</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +948,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D2" sqref="D2:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -971,13 +971,13 @@
         <v>2000</v>
       </c>
       <c r="B2">
-        <v>4.6603196342499897</v>
+        <v>4.1157421594999901</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>466031.96342499898</v>
+        <v>411574.21594999899</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -985,13 +985,13 @@
         <v>2001</v>
       </c>
       <c r="B3">
-        <v>3.2348573081443801</v>
+        <v>1.0076825312709801</v>
       </c>
       <c r="D3">
         <v>2001</v>
       </c>
       <c r="E3">
-        <v>1760015.3848999999</v>
+        <v>508891.48424999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -999,13 +999,13 @@
         <v>2002</v>
       </c>
       <c r="B4">
-        <v>1.2968751224656201</v>
+        <v>0.81687915728702998</v>
       </c>
       <c r="D4">
         <v>2002</v>
       </c>
       <c r="E4">
-        <v>2988121.6674999902</v>
+        <v>828236.39174999902</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1013,13 +1013,13 @@
         <v>2003</v>
       </c>
       <c r="B5">
-        <v>0.72751115223055096</v>
+        <v>0.41625603022386698</v>
       </c>
       <c r="D5">
         <v>2003</v>
       </c>
       <c r="E5">
-        <v>3974913.7884999998</v>
+        <v>781079.29549999896</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1027,13 +1027,13 @@
         <v>2004</v>
       </c>
       <c r="B6">
-        <v>0.17742077395314601</v>
+        <v>0.133291752975985</v>
       </c>
       <c r="D6">
         <v>2004</v>
       </c>
       <c r="E6">
-        <v>1674608.8718749899</v>
+        <v>354225.35107500001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -1041,13 +1041,13 @@
         <v>2005</v>
       </c>
       <c r="B7">
-        <v>0.20250027436364901</v>
+        <v>0.16167204741319899</v>
       </c>
       <c r="D7">
         <v>2005</v>
       </c>
       <c r="E7">
-        <v>2250434.4581249999</v>
+        <v>510287.88222499902</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -1055,13 +1055,13 @@
         <v>2006</v>
       </c>
       <c r="B8">
-        <v>4.7690505014955899E-2</v>
+        <v>2.31202313820895E-2</v>
       </c>
       <c r="D8">
         <v>2006</v>
       </c>
       <c r="E8">
-        <v>631508.17624999897</v>
+        <v>84209.147650000596</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -1069,13 +1069,13 @@
         <v>2007</v>
       </c>
       <c r="B9">
-        <v>0.27012098976298199</v>
+        <v>0.25746645183497302</v>
       </c>
       <c r="D9">
         <v>2007</v>
       </c>
       <c r="E9">
-        <v>3740937.7749999999</v>
+        <v>958186.85580000002</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -1083,13 +1083,13 @@
         <v>2008</v>
       </c>
       <c r="B10">
-        <v>0.27089101645993602</v>
+        <v>0.22044021829581201</v>
       </c>
       <c r="D10">
         <v>2008</v>
       </c>
       <c r="E10">
-        <v>4719568.4447499998</v>
+        <v>1024220.79944999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -1097,13 +1097,13 @@
         <v>2009</v>
       </c>
       <c r="B11">
-        <v>2.4612614244808699E-2</v>
+        <v>1.56642405406669E-2</v>
       </c>
       <c r="D11">
         <v>2009</v>
       </c>
       <c r="E11">
-        <v>603884.60750000097</v>
+        <v>96322.487799999304</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -1111,13 +1111,13 @@
         <v>2010</v>
       </c>
       <c r="B12">
-        <v>2.4003489794352E-2</v>
+        <v>1.3659101679958501E-2</v>
       </c>
       <c r="D12">
         <v>2010</v>
       </c>
       <c r="E12">
-        <v>574699.74337499903</v>
+        <v>81893.399474999795</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -1125,13 +1125,13 @@
         <v>2011</v>
       </c>
       <c r="B13">
-        <v>9.2149972107810202E-2</v>
+        <v>7.9560955671476502E-2</v>
       </c>
       <c r="D13">
         <v>2011</v>
       </c>
       <c r="E13">
-        <v>2259244.64649999</v>
+        <v>483524.7182</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -1139,13 +1139,13 @@
         <v>2012</v>
       </c>
       <c r="B14">
-        <v>0.20542166896290401</v>
+        <v>0.18058903415069599</v>
       </c>
       <c r="D14">
         <v>2012</v>
       </c>
       <c r="E14">
-        <v>5500429.29099999</v>
+        <v>1184833.2511</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -1153,13 +1153,13 @@
         <v>2013</v>
       </c>
       <c r="B15">
-        <v>0.16279094732451499</v>
+        <v>0.15762672908053299</v>
       </c>
       <c r="D15">
         <v>2013</v>
       </c>
       <c r="E15">
-        <v>5539241.1628749901</v>
+        <v>1276109.7623749999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -1167,13 +1167,13 @@
         <v>2014</v>
       </c>
       <c r="B16">
-        <v>9.3343854987790797E-2</v>
+        <v>8.2583203020924603E-2</v>
       </c>
       <c r="D16">
         <v>2014</v>
       </c>
       <c r="E16">
-        <v>3517370.3811250101</v>
+        <v>737104.64562499698</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -1181,13 +1181,13 @@
         <v>2015</v>
       </c>
       <c r="B17">
-        <v>4.0812381054876397E-2</v>
+        <v>3.9622961956334302E-2</v>
       </c>
       <c r="D17">
         <v>2015</v>
       </c>
       <c r="E17">
-        <v>1690207.6382500001</v>
+        <v>384567.63484999997</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -1195,13 +1195,13 @@
         <v>2016</v>
       </c>
       <c r="B18">
-        <v>0.135884822642696</v>
+        <v>0.108226740320243</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>5794373.1736249896</v>
+        <v>1082023.2166249999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -1209,13 +1209,13 @@
         <v>2017</v>
       </c>
       <c r="B19">
-        <v>0.10794379473222999</v>
+        <v>8.6436200884722703E-2</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>5223850.4914999995</v>
+        <v>956966.89920000301</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -1223,13 +1223,13 @@
         <v>2018</v>
       </c>
       <c r="B20">
-        <v>-1.08424925464033E-2</v>
+        <v>-1.0881051278841701E-2</v>
       </c>
       <c r="D20">
         <v>2018</v>
       </c>
       <c r="E20">
-        <v>-553669.59362499404</v>
+        <v>-124648.55682500001</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1269,13 +1269,13 @@
         <v>2000</v>
       </c>
       <c r="B2">
-        <v>2.8775925755</v>
+        <v>2.4764078409999999</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>287759.25754999998</v>
+        <v>247640.78409999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -1283,13 +1283,13 @@
         <v>2001</v>
       </c>
       <c r="B3">
-        <v>3.4833897226271699</v>
+        <v>0.73047251195463103</v>
       </c>
       <c r="D3">
         <v>2001</v>
       </c>
       <c r="E3">
-        <v>1261177.1247999901</v>
+        <v>244354.5851</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1297,13 +1297,13 @@
         <v>2002</v>
       </c>
       <c r="B4">
-        <v>0.98001373944166004</v>
+        <v>0.77630612121509102</v>
       </c>
       <c r="D4">
         <v>2002</v>
       </c>
       <c r="E4">
-        <v>1590789.351</v>
+        <v>449380.61099999899</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1311,13 +1311,13 @@
         <v>2003</v>
       </c>
       <c r="B5">
-        <v>1.9995078414556701E-2</v>
+        <v>-3.4098949804964099E-2</v>
       </c>
       <c r="D5">
         <v>2003</v>
       </c>
       <c r="E5">
-        <v>66121.627699999997</v>
+        <v>-35695.6136999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1325,13 +1325,13 @@
         <v>2004</v>
       </c>
       <c r="B6">
-        <v>-0.12518788570047701</v>
+        <v>-0.12425193338360301</v>
       </c>
       <c r="D6">
         <v>2004</v>
       </c>
       <c r="E6">
-        <v>-422260.83799999999</v>
+        <v>-125634.710349999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -1339,13 +1339,13 @@
         <v>2005</v>
       </c>
       <c r="B7">
-        <v>-6.5918337000155605E-2</v>
+        <v>-8.41207067135257E-2</v>
       </c>
       <c r="D7">
         <v>2005</v>
       </c>
       <c r="E7">
-        <v>-194508.92399999799</v>
+        <v>-74488.389999999694</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -1353,13 +1353,13 @@
         <v>2006</v>
       </c>
       <c r="B8">
-        <v>-0.165355416079739</v>
+        <v>-0.18595437614906599</v>
       </c>
       <c r="D8">
         <v>2006</v>
       </c>
       <c r="E8">
-        <v>-455760.37099999998</v>
+        <v>-150810.06199999899</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -1367,13 +1367,13 @@
         <v>2007</v>
       </c>
       <c r="B9">
-        <v>2.09425684996968E-2</v>
+        <v>-8.9818278040364001E-4</v>
       </c>
       <c r="D9">
         <v>2007</v>
       </c>
       <c r="E9">
-        <v>48178.098999999398</v>
+        <v>-592.975999999907</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -1381,13 +1381,13 @@
         <v>2008</v>
       </c>
       <c r="B10">
-        <v>0.23751326226589001</v>
+        <v>0.227674159531952</v>
       </c>
       <c r="D10">
         <v>2008</v>
       </c>
       <c r="E10">
-        <v>507126.41700000002</v>
+        <v>136522.19200000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -1395,13 +1395,13 @@
         <v>2009</v>
       </c>
       <c r="B11">
-        <v>6.3733886198334602E-2</v>
+        <v>1.6218322258685799E-2</v>
       </c>
       <c r="D11">
         <v>2009</v>
       </c>
       <c r="E11">
-        <v>208287.24199999901</v>
+        <v>14767.0110000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -1409,13 +1409,13 @@
         <v>2010</v>
       </c>
       <c r="B12">
-        <v>-0.137253427988524</v>
+        <v>-0.13724852376879301</v>
       </c>
       <c r="D12">
         <v>2010</v>
       </c>
       <c r="E12">
-        <v>-433766.44300000102</v>
+        <v>-115448.799999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -1423,13 +1423,13 @@
         <v>2011</v>
       </c>
       <c r="B13">
-        <v>0.14017544698221099</v>
+        <v>8.9834489391640002E-2</v>
       </c>
       <c r="D13">
         <v>2011</v>
       </c>
       <c r="E13">
-        <v>382197.58899999899</v>
+        <v>65194.443999999698</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -1437,13 +1437,13 @@
         <v>2012</v>
       </c>
       <c r="B14">
-        <v>-0.129050536909874</v>
+        <v>-0.100999506937217</v>
       </c>
       <c r="D14">
         <v>2012</v>
       </c>
       <c r="E14">
-        <v>-401187.592999999</v>
+        <v>-79881.697200000097</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -1451,13 +1451,13 @@
         <v>2013</v>
       </c>
       <c r="B15">
-        <v>7.7174069902711702E-3</v>
+        <v>-3.1213096965406101E-2</v>
       </c>
       <c r="D15">
         <v>2013</v>
       </c>
       <c r="E15">
-        <v>22980.1809999998</v>
+        <v>-25490.104999999799</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -1465,13 +1465,13 @@
         <v>2014</v>
       </c>
       <c r="B16">
-        <v>0.17695611401942099</v>
+        <v>0.17837324921550601</v>
       </c>
       <c r="D16">
         <v>2014</v>
       </c>
       <c r="E16">
-        <v>482718.31500000099</v>
+        <v>128292.191849999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -1479,13 +1479,13 @@
         <v>2015</v>
       </c>
       <c r="B17">
-        <v>-0.18581421135786599</v>
+        <v>-0.204063331016231</v>
       </c>
       <c r="D17">
         <v>2015</v>
       </c>
       <c r="E17">
-        <v>-636501.66399999999</v>
+        <v>-181717.992999999</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -1493,13 +1493,13 @@
         <v>2016</v>
       </c>
       <c r="B18">
-        <v>1.54704520426276E-2</v>
+        <v>1.4947374358228E-2</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>43146.644749999898</v>
+        <v>10594.389949999801</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -1507,13 +1507,13 @@
         <v>2017</v>
       </c>
       <c r="B19">
-        <v>0.114305793930656</v>
+        <v>6.6468679328845995E-2</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>314125.78874999902</v>
+        <v>46699.147149999902</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -1521,13 +1521,13 @@
         <v>2018</v>
       </c>
       <c r="B20">
-        <v>1.29690162276996E-2</v>
+        <v>-5.0033559931119603E-2</v>
       </c>
       <c r="D20">
         <v>2018</v>
       </c>
       <c r="E20">
-        <v>36103.904500001503</v>
+        <v>-34080.967499999701</v>
       </c>
     </row>
   </sheetData>
